--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKKPS018-001-SetJenisMutasi.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKKPS018-001-SetJenisMutasi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20341"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BNI - STI\PROJECT\2023\DPLK\12 Februari 2023\Setup_Kepesertaan\KEP.SET.005\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A528D4-4C36-45D4-A850-03F2D09ABDD6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F8F4EF-F55D-421F-A330-8D7340EFB2D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DPLKKPS018-001" sheetId="14" r:id="rId1"/>
@@ -443,8 +443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -462,7 +462,8 @@
     <col min="11" max="11" width="15" style="1" customWidth="1"/>
     <col min="12" max="12" width="18.28515625" style="1" customWidth="1"/>
     <col min="13" max="13" width="16.85546875" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="14" max="14" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
